--- a/biology/Zoologie/Acropora_austera/Acropora_austera.xlsx
+++ b/biology/Zoologie/Acropora_austera/Acropora_austera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropora austera est une espèce de coraux appartenant à la famille des Acroporidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acropora austera fait partie des acropores branchus arborescents[2] : il forme des buissons denses, constituée de bras extrêmement robustes et souvent sub-coniques, brun sombre parfois bleutés, terminés par une corallite axiale claire (parfois jaune), longue et fine mais solide, à l'ouverture étroite. Les corallites radiales sont bien espacées, épaisses, arrondies, robustes et souvent alignées en rangées, avec une ouverture plus large et sub-quadrangulaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acropora austera fait partie des acropores branchus arborescents : il forme des buissons denses, constituée de bras extrêmement robustes et souvent sub-coniques, brun sombre parfois bleutés, terminés par une corallite axiale claire (parfois jaune), longue et fine mais solide, à l'ouverture étroite. Les corallites radiales sont bien espacées, épaisses, arrondies, robustes et souvent alignées en rangées, avec une ouverture plus large et sub-quadrangulaire.
 			Gros plan sur les corallites.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corail se retrouve dans tout l'Indo-Pacifique tropical, de la mer Rouge à la Polynésie[3]. C'est une espèce qui affectionne tout particulièrement les platiers légèrement turbides[4].
-On trouve ce corail à faible profondeur (0,5-20 m[3], surtout dans les 5 premiers mètres).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corail se retrouve dans tout l'Indo-Pacifique tropical, de la mer Rouge à la Polynésie. C'est une espèce qui affectionne tout particulièrement les platiers légèrement turbides.
+On trouve ce corail à faible profondeur (0,5-20 m, surtout dans les 5 premiers mètres).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de corail n'est pas menacée individuellement (l'IUCN la classe comme « non menacée »), mais la régression marquée des récifs de corail depuis le XXe siècle due à la pollution, au réchauffement planétaire et à l'acidification des eaux, fait peser de lourdes menaces sur sa population à moyen terme. Elle figure donc à la seconde annexe de la CITES[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de corail n'est pas menacée individuellement (l'IUCN la classe comme « non menacée »), mais la régression marquée des récifs de corail depuis le XXe siècle due à la pollution, au réchauffement planétaire et à l'acidification des eaux, fait peser de lourdes menaces sur sa population à moyen terme. Elle figure donc à la seconde annexe de la CITES.
 </t>
         </is>
       </c>
